--- a/Scenario3/pesquisa10/pesquisa_14082019/resultado_final_excel.xlsx
+++ b/Scenario3/pesquisa10/pesquisa_14082019/resultado_final_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\weak_signals\Scenario3\pesquisa10\pesquisa_14082019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207D0671-FE30-4B4C-852E-875DF47F49FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81270D1-15DA-494F-8324-A3682EF65C4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultado_final" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2012'!$A$1:$M$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2013'!$A$1:$M$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2014'!$A$1:$M$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'2015'!$A$1:$M$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2016'!$A$1:$M$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2017'!$A$1:$M$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'2018'!$A$1:$M$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4483" uniqueCount="1371">
   <si>
     <t>Authors</t>
   </si>
@@ -12336,10 +12340,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L32"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="E30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F32"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12348,14 +12353,15 @@
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="106.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12372,28 +12378,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>418</v>
       </c>
@@ -12409,26 +12418,26 @@
       <c r="E2" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>424</v>
       </c>
@@ -12444,29 +12453,29 @@
       <c r="E3" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>431</v>
       </c>
@@ -12482,26 +12491,26 @@
       <c r="E4" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>437</v>
       </c>
@@ -12517,26 +12526,26 @@
       <c r="E5" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>443</v>
       </c>
@@ -12556,25 +12565,28 @@
         <v>1366</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>450</v>
       </c>
@@ -12590,23 +12602,23 @@
       <c r="E7" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>455</v>
       </c>
@@ -12626,25 +12638,28 @@
         <v>1366</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>462</v>
       </c>
@@ -12660,26 +12675,26 @@
       <c r="E9" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="M9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>468</v>
       </c>
@@ -12695,29 +12710,29 @@
       <c r="E10" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>475</v>
       </c>
@@ -12733,26 +12748,26 @@
       <c r="E11" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>481</v>
       </c>
@@ -12768,26 +12783,26 @@
       <c r="E12" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>487</v>
       </c>
@@ -12803,29 +12818,29 @@
       <c r="E13" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>494</v>
       </c>
@@ -12841,26 +12856,26 @@
       <c r="E14" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>418</v>
       </c>
@@ -12873,26 +12888,26 @@
       <c r="E15" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>503</v>
       </c>
@@ -12908,26 +12923,26 @@
       <c r="E16" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>509</v>
       </c>
@@ -12943,29 +12958,29 @@
       <c r="E17" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="M17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>516</v>
       </c>
@@ -12981,26 +12996,26 @@
       <c r="E18" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>522</v>
       </c>
@@ -13016,26 +13031,26 @@
       <c r="E19" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>528</v>
       </c>
@@ -13055,25 +13070,28 @@
         <v>1366</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>535</v>
       </c>
@@ -13089,29 +13107,29 @@
       <c r="E21" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>542</v>
       </c>
@@ -13131,25 +13149,28 @@
         <v>1366</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>549</v>
       </c>
@@ -13163,28 +13184,31 @@
         <v>551</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="M23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>555</v>
       </c>
@@ -13200,26 +13224,26 @@
       <c r="E24" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="M24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -13235,26 +13259,26 @@
       <c r="E25" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>566</v>
       </c>
@@ -13271,25 +13295,28 @@
         <v>1366</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="M26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>572</v>
       </c>
@@ -13305,29 +13332,29 @@
       <c r="E27" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>579</v>
       </c>
@@ -13343,29 +13370,29 @@
       <c r="E28" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" ht="405" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>586</v>
       </c>
@@ -13378,53 +13405,63 @@
       <c r="E29" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="F30">
-        <f>COUNTIF($F$2:$F$29,E30)</f>
+      <c r="F30" s="1"/>
+      <c r="G30">
+        <f>COUNTIF($G$2:$G$29,E30)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="F31">
-        <f t="shared" ref="F31:F32" si="0">COUNTIF($F$2:$F$29,E31)</f>
+      <c r="F31" s="1"/>
+      <c r="G31">
+        <f t="shared" ref="G31:G32" si="0">COUNTIF($G$2:$G$29,E31)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1"/>
+      <c r="G32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M32" xr:uid="{E0DACBB7-89E4-483D-A603-29EDD3064346}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="S"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -13432,10 +13469,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:L32"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="B30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F32" sqref="E30:F32"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13443,16 +13481,17 @@
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="95" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="95" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13469,28 +13508,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>246</v>
       </c>
@@ -13510,22 +13552,25 @@
         <v>1366</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>252</v>
       </c>
@@ -13545,25 +13590,28 @@
         <v>1366</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="345" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>259</v>
       </c>
@@ -13579,26 +13627,26 @@
       <c r="E4" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>265</v>
       </c>
@@ -13614,26 +13662,26 @@
       <c r="E5" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>271</v>
       </c>
@@ -13649,26 +13697,26 @@
       <c r="E6" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>277</v>
       </c>
@@ -13684,29 +13732,29 @@
       <c r="E7" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>284</v>
       </c>
@@ -13722,29 +13770,29 @@
       <c r="E8" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>291</v>
       </c>
@@ -13760,29 +13808,29 @@
       <c r="E9" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>298</v>
       </c>
@@ -13799,22 +13847,25 @@
         <v>301</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="M10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>303</v>
       </c>
@@ -13831,25 +13882,28 @@
         <v>306</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>309</v>
       </c>
@@ -13865,23 +13919,23 @@
       <c r="E12" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>314</v>
       </c>
@@ -13901,25 +13955,28 @@
         <v>1366</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>321</v>
       </c>
@@ -13935,29 +13992,29 @@
       <c r="E14" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>328</v>
       </c>
@@ -13973,26 +14030,26 @@
       <c r="E15" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>334</v>
       </c>
@@ -14008,26 +14065,26 @@
       <c r="E16" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>340</v>
       </c>
@@ -14047,22 +14104,25 @@
         <v>1366</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>346</v>
       </c>
@@ -14078,26 +14138,26 @@
       <c r="E18" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>352</v>
       </c>
@@ -14117,22 +14177,25 @@
         <v>1366</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>358</v>
       </c>
@@ -14145,29 +14208,29 @@
       <c r="E20" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="M20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>364</v>
       </c>
@@ -14183,26 +14246,26 @@
       <c r="E21" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>370</v>
       </c>
@@ -14218,29 +14281,29 @@
       <c r="E22" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>377</v>
       </c>
@@ -14253,26 +14316,26 @@
       <c r="E23" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>382</v>
       </c>
@@ -14285,29 +14348,29 @@
       <c r="E24" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="M24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>388</v>
       </c>
@@ -14323,29 +14386,29 @@
       <c r="E25" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="M25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>395</v>
       </c>
@@ -14361,26 +14424,26 @@
       <c r="E26" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>401</v>
       </c>
@@ -14393,26 +14456,26 @@
       <c r="E27" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>406</v>
       </c>
@@ -14428,29 +14491,29 @@
       <c r="E28" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>413</v>
       </c>
@@ -14463,79 +14526,91 @@
       <c r="E29" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="F30">
-        <f>COUNTIF($F$2:$F$29,E30)</f>
+      <c r="F30" s="1"/>
+      <c r="G30">
+        <f>COUNTIF($G$2:$G$29,E30)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="F31">
-        <f t="shared" ref="F31:F32" si="0">COUNTIF($F$2:$F$29,E31)</f>
+      <c r="F31" s="1"/>
+      <c r="G31">
+        <f t="shared" ref="G31:G32" si="0">COUNTIF($G$2:$G$29,E31)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1"/>
+      <c r="G32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M32" xr:uid="{C9A7479D-7BEC-4390-A1F1-D86D2A0DA901}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="S"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:L22"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:F22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14552,28 +14627,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
@@ -14589,26 +14667,26 @@
       <c r="E2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
@@ -14624,29 +14702,29 @@
       <c r="E3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>144</v>
       </c>
@@ -14662,29 +14740,29 @@
       <c r="E4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>151</v>
       </c>
@@ -14697,26 +14775,26 @@
       <c r="E5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>156</v>
       </c>
@@ -14736,22 +14814,25 @@
         <v>1366</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>162</v>
       </c>
@@ -14767,29 +14848,29 @@
       <c r="E7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>169</v>
       </c>
@@ -14809,25 +14890,28 @@
         <v>1366</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>176</v>
       </c>
@@ -14843,29 +14927,29 @@
       <c r="E9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>184</v>
       </c>
@@ -14881,29 +14965,29 @@
       <c r="E10" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>191</v>
       </c>
@@ -14919,26 +15003,26 @@
       <c r="E11" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>197</v>
       </c>
@@ -14954,26 +15038,26 @@
       <c r="E12" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>203</v>
       </c>
@@ -14989,29 +15073,29 @@
       <c r="E13" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="405" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>210</v>
       </c>
@@ -15027,29 +15111,29 @@
       <c r="E14" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>217</v>
       </c>
@@ -15065,23 +15149,23 @@
       <c r="E15" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="M15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>223</v>
       </c>
@@ -15097,23 +15181,23 @@
       <c r="E16" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="M16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>228</v>
       </c>
@@ -15129,26 +15213,26 @@
       <c r="E17" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="345" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>234</v>
       </c>
@@ -15161,26 +15245,26 @@
       <c r="E18" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="405" x14ac:dyDescent="0.25">
+      <c r="M18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>239</v>
       </c>
@@ -15196,56 +15280,66 @@
       <c r="E19" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="F20">
-        <f>COUNTIF($F$2:$F$19,E20)</f>
+      <c r="F20" s="1"/>
+      <c r="G20">
+        <f>COUNTIF($G$2:$G$19,E20)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="F21">
-        <f t="shared" ref="F21:F22" si="0">COUNTIF($F$2:$F$19,E21)</f>
+      <c r="F21" s="1"/>
+      <c r="G21">
+        <f t="shared" ref="G21:G22" si="0">COUNTIF($G$2:$G$19,E21)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1"/>
+      <c r="G22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M22" xr:uid="{038E4573-24CA-4864-B2CE-FD993F82341D}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="S"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -15966,10 +16060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B896101-8E07-4455-98F9-E7212E2AD0D9}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16047,19 +16141,19 @@
         <v>6</v>
       </c>
       <c r="H2" s="2">
-        <f>'2015'!F20</f>
+        <f>'2015'!G20</f>
         <v>8</v>
       </c>
       <c r="I2" s="2">
-        <f>'2016'!F30</f>
+        <f>'2016'!G30</f>
         <v>6</v>
       </c>
       <c r="J2" s="2">
-        <f>'2017'!F30</f>
+        <f>'2017'!G30</f>
         <v>7</v>
       </c>
       <c r="K2" s="2">
-        <f>'2018'!F20</f>
+        <f>'2018'!G20</f>
         <v>2</v>
       </c>
       <c r="L2" s="2">
@@ -16100,19 +16194,19 @@
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <f>'2015'!F21</f>
+        <f>'2015'!G21</f>
         <v>10</v>
       </c>
       <c r="I3" s="2">
-        <f>'2016'!F31</f>
+        <f>'2016'!G31</f>
         <v>22</v>
       </c>
       <c r="J3" s="2">
-        <f>'2017'!F31</f>
+        <f>'2017'!G31</f>
         <v>21</v>
       </c>
       <c r="K3" s="2">
-        <f>'2018'!F21</f>
+        <f>'2018'!G21</f>
         <v>16</v>
       </c>
       <c r="L3" s="2">
@@ -16120,111 +16214,58 @@
         <v>17</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M4" si="0">SUM(B3:L3)</f>
+        <f t="shared" ref="M3" si="0">SUM(B3:L3)</f>
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1367</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="2">
-        <f>'2009'!G12</f>
-        <v>0</v>
+        <f>SUM(B2:B3)</f>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
-        <f>'2010'!G19</f>
-        <v>0</v>
+        <f>SUM(C2:C3)</f>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
-        <f>'2011'!G25</f>
-        <v>0</v>
+        <f>SUM(D2:D3)</f>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
-        <f>'2012'!G28</f>
-        <v>0</v>
+        <f>SUM(E2:E3)</f>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
-        <f>'2013'!G32</f>
-        <v>0</v>
+        <f>SUM(F2:F3)</f>
+        <v>28</v>
       </c>
       <c r="G4" s="2">
-        <f>'2014'!G18</f>
-        <v>0</v>
+        <f>SUM(G2:G3)</f>
+        <v>14</v>
       </c>
       <c r="H4" s="2">
-        <f>'2015'!F22</f>
-        <v>0</v>
+        <f>SUM(H2:H3)</f>
+        <v>18</v>
       </c>
       <c r="I4" s="2">
-        <f>'2016'!F32</f>
-        <v>0</v>
+        <f>SUM(I2:I3)</f>
+        <v>28</v>
       </c>
       <c r="J4" s="2">
-        <f>'2017'!F32</f>
-        <v>0</v>
+        <f>SUM(J2:J3)</f>
+        <v>28</v>
       </c>
       <c r="K4" s="2">
-        <f>'2018'!F22</f>
-        <v>0</v>
+        <f>SUM(K2:K3)</f>
+        <v>18</v>
       </c>
       <c r="L4" s="2">
-        <f>'2019'!F21</f>
-        <v>0</v>
+        <f>SUM(L2:L3)</f>
+        <v>17</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2">
-        <f>SUM(B2:B4)</f>
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:L5" si="1">SUM(C2:C4)</f>
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="M5" s="2">
-        <f>SUM(M2:M4)</f>
+        <f>SUM(M2:M3)</f>
         <v>219</v>
       </c>
     </row>
@@ -16593,7 +16634,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11">
-        <f t="shared" ref="G11:G12" si="0">COUNTIF($G$2:$G$9,E11)</f>
+        <f t="shared" ref="G11" si="0">COUNTIF($G$2:$G$9,E11)</f>
         <v>6</v>
       </c>
     </row>
@@ -17283,7 +17324,7 @@
     <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20243,8 +20284,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20867,10 +20908,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L22"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:F22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20879,16 +20921,17 @@
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="97.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20905,28 +20948,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>591</v>
       </c>
@@ -20946,25 +20992,28 @@
         <v>1366</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>598</v>
       </c>
@@ -20984,25 +21033,28 @@
         <v>1366</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>605</v>
       </c>
@@ -21018,26 +21070,26 @@
       <c r="E4" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>611</v>
       </c>
@@ -21057,25 +21109,28 @@
         <v>1366</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>618</v>
       </c>
@@ -21091,26 +21146,26 @@
       <c r="E6" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>624</v>
       </c>
@@ -21130,25 +21185,28 @@
         <v>1366</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="375" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>631</v>
       </c>
@@ -21164,29 +21222,29 @@
       <c r="E8" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>638</v>
       </c>
@@ -21206,25 +21264,28 @@
         <v>1366</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>645</v>
       </c>
@@ -21240,23 +21301,23 @@
       <c r="E10" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>650</v>
       </c>
@@ -21270,28 +21331,31 @@
         <v>652</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="405" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="405" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>656</v>
       </c>
@@ -21308,25 +21372,28 @@
         <v>1366</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="M12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>662</v>
       </c>
@@ -21343,25 +21410,28 @@
         <v>1366</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="M13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>668</v>
       </c>
@@ -21374,26 +21444,26 @@
       <c r="E14" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="405" x14ac:dyDescent="0.25">
+      <c r="M14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="405" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>673</v>
       </c>
@@ -21409,26 +21479,26 @@
       <c r="E15" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="375" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>679</v>
       </c>
@@ -21441,26 +21511,26 @@
       <c r="E16" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+      <c r="M16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>684</v>
       </c>
@@ -21476,29 +21546,29 @@
       <c r="E17" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>691</v>
       </c>
@@ -21514,23 +21584,23 @@
       <c r="E18" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>696</v>
       </c>
@@ -21546,50 +21616,60 @@
       <c r="E19" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="F20">
-        <f>COUNTIF($F$2:$F$19,E20)</f>
+      <c r="F20" s="1"/>
+      <c r="G20">
+        <f>COUNTIF($G$2:$G$19,E20)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="F21">
-        <f t="shared" ref="F21:F22" si="0">COUNTIF($F$2:$F$19,E21)</f>
+      <c r="F21" s="1"/>
+      <c r="G21">
+        <f t="shared" ref="G21:G22" si="0">COUNTIF($G$2:$G$19,E21)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1"/>
+      <c r="G22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M22" xr:uid="{C6C6ECEC-FCF8-4CE0-877A-18DFB5B21591}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="S"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>